--- a/medicine/Médecine vétérinaire/Lyperosomum_transversogenitale/Lyperosomum_transversogenitale.xlsx
+++ b/medicine/Médecine vétérinaire/Lyperosomum_transversogenitale/Lyperosomum_transversogenitale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lyperosomum transversogenitale est une espèce de trématodes de la famille des Dicrocoeliidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lyperosomum transversogenitale parasite l'Hirondelle de rivage (Riparia riparia), le Faisan de Colchide (Phasianus colchicus)[1]...
-La sous-espèce Lyperosomum transversogenitale sylvestris parasite notamment l'Engoulevent d'Europe (Caprimulgus europaeus)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lyperosomum transversogenitale parasite l'Hirondelle de rivage (Riparia riparia), le Faisan de Colchide (Phasianus colchicus)...
+La sous-espèce Lyperosomum transversogenitale sylvestris parasite notamment l'Engoulevent d'Europe (Caprimulgus europaeus).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Layman, 1922 : Zur Charakteristik neuer Lyperosomum-Arten. Zentralblatt für Bakteriologie und Parasitenkunde, vol. 56, p. 568-572.</t>
         </is>
